--- a/A1/Calculo de red.xlsx
+++ b/A1/Calculo de red.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculo Red" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve">xarxa </t>
   </si>
@@ -50,14 +52,58 @@
     <t>1/1000</t>
   </si>
   <si>
-    <t>Gbits segundo</t>
+    <t xml:space="preserve">Iops clientes </t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Almacenamiento/clietne</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productos </t>
+  </si>
+  <si>
+    <t>Almacenamiento/producto</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Iops productos</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>Gbps</t>
+  </si>
+  <si>
+    <t>Mbps</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -76,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,11 +149,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -383,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,14 +462,15 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>1+(0.8*((10*400*8+80)+(30*64+80)))+(0.2*((10*400*8+80)+(30*64+80) + 16))</f>
-        <v>34084.199999999997</v>
+        <f>1+(0.8*((10*400*8+80)+(30*64+80)))+(0.2*((10*400*8+80)+(30*64+80) + 16))+(0.2*256)</f>
+        <v>34135.399999999994</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1">
-        <v>600000</v>
+        <f>600000*1.2</f>
+        <v>720000</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -425,7 +484,7 @@
       </c>
       <c r="M1" s="1">
         <f>B1*D1</f>
-        <v>20450520000</v>
+        <v>24577487999.999996</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -444,12 +503,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M5" s="3"/>
+      <c r="E5">
+        <f>0.2*256</f>
+        <v>51.2</v>
+      </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I6" s="1">
         <f>((M1/G1)*8)/1000</f>
-        <v>1893.5666666666668</v>
+        <v>2275.6933333333332</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -457,12 +520,266 @@
       <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <f>I6/1000</f>
-        <v>1.8935666666666668</v>
+        <v>2.2756933333333333</v>
       </c>
       <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>1893.51+1901.51</f>
+        <v>3795.02</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <f>I10/1000</f>
+        <v>3.7950200000000001</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>8</v>
+      </c>
+      <c r="B1">
+        <f>256*0.8 + 0.2*512</f>
+        <v>307.20000000000005</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>250000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>256</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2">
+        <f>((E2*F2)/1024)/1024</f>
+        <v>61.03515625</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <f>E2*1.2</f>
+        <v>300000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>256</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3">
+        <f>((E3*F3)/1024)/1024</f>
+        <v>73.2421875</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>256</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4">
+        <f>((E4*F4)/1024)/1024</f>
+        <v>244.140625</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <f>H2+H8</f>
+        <v>1434.326171875</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>33920</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>20000000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>72</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8">
+        <f>((E8*F8)/1024)/1024</f>
+        <v>1373.291015625</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <f>E8*1.2</f>
+        <v>24000000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9">
+        <f>((E9*F9)/1024)/1024</f>
+        <v>1647.94921875</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="E10">
+        <v>40000000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>72</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10">
+        <f>((E10*F10)/1024)/1024</f>
+        <v>2746.58203125</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Clientes!L6</f>
+        <v>1434.326171875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="6">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="7">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="E6">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
